--- a/tabelas/benchmark_fundos.xlsx
+++ b/tabelas/benchmark_fundos.xlsx
@@ -468,27 +468,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>2.54</t>
         </is>
       </c>
     </row>
@@ -500,27 +500,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4.99</t>
+          <t>5.53</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.10</t>
+          <t>6.26</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>10.52</t>
+          <t>9.88</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.71</t>
+          <t>8.01</t>
         </is>
       </c>
     </row>
@@ -532,27 +532,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5.17</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6.69</t>
+          <t>6.38</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.52</t>
+          <t>5.19</t>
         </is>
       </c>
     </row>
@@ -564,27 +564,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>-1.84</t>
+          <t>-1.99</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-2.17</t>
+          <t>-1.93</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-1.30</t>
+          <t>-1.08</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-0.78</t>
+          <t>-0.57</t>
         </is>
       </c>
     </row>
@@ -596,22 +596,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-2.38</t>
+          <t>-2.64</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-3.12</t>
+          <t>-3.45</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-1.55</t>
+          <t>-1.67</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-0.71</t>
+          <t>-0.77</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">

--- a/tabelas/benchmark_fundos.xlsx
+++ b/tabelas/benchmark_fundos.xlsx
@@ -483,7 +483,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -500,7 +500,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>5.53</t>
+          <t>5.52</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +515,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>9.88</t>
+          <t>9.84</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -532,7 +532,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5.25</t>
+          <t>5.24</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +547,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6.38</t>
+          <t>6.35</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-1.93</t>
+          <t>-1.94</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>-0.30</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -601,12 +601,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-3.45</t>
+          <t>-3.44</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-1.67</t>
+          <t>-1.66</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">

--- a/tabelas/benchmark_fundos.xlsx
+++ b/tabelas/benchmark_fundos.xlsx
@@ -483,7 +483,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -500,12 +500,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>5.52</t>
+          <t>5.54</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -515,7 +515,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>9.84</t>
+          <t>9.87</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -537,17 +537,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6.35</t>
+          <t>6.34</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-1.94</t>
+          <t>-1.93</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-0.30</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-0.77</t>
+          <t>-0.76</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
